--- a/biology/Botanique/Parc_Blücher/Parc_Blücher.xlsx
+++ b/biology/Botanique/Parc_Blücher/Parc_Blücher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Bl%C3%BCcher</t>
+          <t>Parc_Blücher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Blücher (Blücherpark), est un espace vert de Cologne en Allemagne qui se trouve dans le quartier de Bilderstöckchen, dans l'arrondissement de Nippes. Il a été aménagé entre 1911 et 1913 d'après les plans de l'architecte paysager Fritz Encke[1]. Il s'agit du premier parc municipal ouvert pour la partie nord-ouest et nord de Cologne, près d'anciennes zones industrielles (comme Ehrenfeld et Nippes). Il s'étend aujourd'hui sur 18,4 hectares[1]. Il confine au sud à la Kreisstraße K12, à l'ouest à la gare d'autobus (A 57) et au nord et à l'est à des zones résidentielles qui longent entre autres la Kanalstraße et la Escher Straße. La Heidemannstraße divise le parc sur un axe est-ouest.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Blücher (Blücherpark), est un espace vert de Cologne en Allemagne qui se trouve dans le quartier de Bilderstöckchen, dans l'arrondissement de Nippes. Il a été aménagé entre 1911 et 1913 d'après les plans de l'architecte paysager Fritz Encke. Il s'agit du premier parc municipal ouvert pour la partie nord-ouest et nord de Cologne, près d'anciennes zones industrielles (comme Ehrenfeld et Nippes). Il s'étend aujourd'hui sur 18,4 hectares. Il confine au sud à la Kreisstraße K12, à l'ouest à la gare d'autobus (A 57) et au nord et à l'est à des zones résidentielles qui longent entre autres la Kanalstraße et la Escher Straße. La Heidemannstraße divise le parc sur un axe est-ouest.
 Il y a un terrain de sport au nord et un étang au sud. Le nom du parc a été donné en hommage au maréchal prussien Gebhard Leberecht von Blücher.
 </t>
         </is>
